--- a/data/trans_orig/P32D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AABE2AA-795E-424D-A13D-EF2705C331DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B7884A0-A34B-4008-BEE8-CD8FA6828EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{926132C5-8D66-4C3C-AEA9-116D1E78610B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{883E2F0D-C97F-4492-9853-31E4E6D35FED}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="409">
   <si>
     <t>Población según si en los últimos 12 meses ha tomado 6/5 (Hombre/Mujer) o más bebidas estándar en una misma ocasión en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>20,85%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
   </si>
   <si>
     <t>53,52%</t>
   </si>
   <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
   </si>
   <si>
     <t>No en los últimos 12 meses</t>
@@ -104,28 +104,28 @@
     <t>35,72%</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
   </si>
   <si>
     <t>23,2%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
   </si>
   <si>
     <t>31,15%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
   </si>
   <si>
     <t>Menos de una vez al mes</t>
@@ -134,28 +134,28 @@
     <t>20,28%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
   </si>
   <si>
     <t>12,31%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>Una vez al mes</t>
@@ -167,22 +167,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,74%</t>
+    <t>15,78%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>21,52%</t>
+    <t>18,64%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>De 2 a 3 días en un mes</t>
@@ -191,25 +191,25 @@
     <t>9,27%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>17,6%</t>
+    <t>18,67%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>De 1 a 2 días por semana</t>
@@ -218,7 +218,7 @@
     <t>2,85%</t>
   </si>
   <si>
-    <t>13,91%</t>
+    <t>15,35%</t>
   </si>
   <si>
     <t>0%</t>
@@ -230,7 +230,7 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>10,64%</t>
+    <t>8,45%</t>
   </si>
   <si>
     <t>De 3 a 4 días por semana</t>
@@ -239,13 +239,13 @@
     <t>2,91%</t>
   </si>
   <si>
-    <t>9,76%</t>
+    <t>8,91%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>14,35%</t>
+    <t>12,25%</t>
   </si>
   <si>
     <t>2,79%</t>
@@ -254,7 +254,7 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>7,78%</t>
+    <t>8,35%</t>
   </si>
   <si>
     <t>De 5 a 6 días por semana</t>
@@ -263,28 +263,25 @@
     <t>2,72%</t>
   </si>
   <si>
-    <t>13,58%</t>
+    <t>13,17%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
     <t>A diario o casi a diario</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>7,68%</t>
+    <t>8,98%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,19%</t>
+    <t>4,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -296,907 +293,943 @@
     <t>23,5%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
   </si>
   <si>
     <t>37,43%</t>
   </si>
   <si>
-    <t>30,67%</t>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
   </si>
   <si>
     <t>45,0%</t>
   </si>
   <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -1205,37 +1238,28 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,71%</t>
+    <t>0,73%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>0,61%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>1,93%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>1,62%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1650,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157CC57F-77C2-4B90-AC98-F29BAD9F9C01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07253D13-1A54-4F9D-8A19-C3AEB3191CDE}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2167,13 +2191,13 @@
         <v>42</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -2182,13 +2206,13 @@
         <v>650</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2212,13 +2236,13 @@
         <v>650</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2257,13 @@
         <v>45218</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -2248,13 +2272,13 @@
         <v>26000</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -2263,18 +2287,18 @@
         <v>71219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2286,13 +2310,13 @@
         <v>67888</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -2301,13 +2325,13 @@
         <v>52790</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>152</v>
@@ -2316,13 +2340,13 @@
         <v>120679</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2361,13 @@
         <v>114070</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>82</v>
@@ -2352,13 +2376,13 @@
         <v>53366</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>214</v>
@@ -2367,13 +2391,13 @@
         <v>167436</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2412,13 @@
         <v>68699</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -2403,13 +2427,13 @@
         <v>24307</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -2418,10 +2442,10 @@
         <v>93006</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>110</v>
@@ -2559,10 +2583,10 @@
         <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2571,13 +2595,13 @@
         <v>11408</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,13 +2616,13 @@
         <v>1191</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2607,13 +2631,13 @@
         <v>1642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2622,13 +2646,13 @@
         <v>2834</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2667,13 @@
         <v>1141</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2664,7 +2688,7 @@
         <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2673,19 +2697,19 @@
         <v>1141</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="7">
         <v>5</v>
@@ -2694,13 +2718,13 @@
         <v>3986</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2715,7 +2739,7 @@
         <v>61</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2724,13 +2748,13 @@
         <v>3986</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2769,13 @@
         <v>288931</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H23" s="7">
         <v>207</v>
@@ -2760,13 +2784,13 @@
         <v>141028</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M23" s="7">
         <v>509</v>
@@ -2775,18 +2799,18 @@
         <v>429959</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2798,13 +2822,13 @@
         <v>91872</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="H24" s="7">
         <v>110</v>
@@ -2813,13 +2837,13 @@
         <v>75217</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>194</v>
@@ -2828,13 +2852,13 @@
         <v>167089</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,13 +2873,13 @@
         <v>213364</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>96</v>
@@ -2864,13 +2888,13 @@
         <v>72260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>298</v>
@@ -2879,13 +2903,13 @@
         <v>285624</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2924,13 @@
         <v>101883</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>43</v>
@@ -2915,13 +2939,13 @@
         <v>38302</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>132</v>
@@ -2930,13 +2954,13 @@
         <v>140185</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2975,13 @@
         <v>42269</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -2966,13 +2990,13 @@
         <v>8965</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>45</v>
@@ -2981,13 +3005,13 @@
         <v>51234</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,10 +3029,10 @@
         <v>66</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -3017,13 +3041,13 @@
         <v>11873</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -3032,13 +3056,13 @@
         <v>25959</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3077,13 @@
         <v>8566</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -3068,13 +3092,13 @@
         <v>11071</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -3086,10 +3110,10 @@
         <v>70</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3128,13 @@
         <v>3482</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3125,7 +3149,7 @@
         <v>61</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -3134,13 +3158,13 @@
         <v>3482</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3179,13 @@
         <v>2725</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3176,7 +3200,7 @@
         <v>61</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -3185,19 +3209,19 @@
         <v>2725</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="7">
         <v>6</v>
@@ -3206,13 +3230,13 @@
         <v>5698</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -3221,13 +3245,13 @@
         <v>1633</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -3236,13 +3260,13 @@
         <v>7331</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3281,13 @@
         <v>483945</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" s="7">
         <v>289</v>
@@ -3272,13 +3296,13 @@
         <v>219321</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M33" s="7">
         <v>729</v>
@@ -3287,18 +3311,18 @@
         <v>703266</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3310,13 +3334,13 @@
         <v>64728</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H34" s="7">
         <v>98</v>
@@ -3325,13 +3349,13 @@
         <v>184537</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M34" s="7">
         <v>159</v>
@@ -3340,13 +3364,13 @@
         <v>249265</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3385,13 @@
         <v>150603</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H35" s="7">
         <v>96</v>
@@ -3376,13 +3400,13 @@
         <v>71744</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M35" s="7">
         <v>232</v>
@@ -3391,13 +3415,13 @@
         <v>222348</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3436,13 @@
         <v>64705</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H36" s="7">
         <v>35</v>
@@ -3427,13 +3451,13 @@
         <v>26480</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M36" s="7">
         <v>93</v>
@@ -3442,13 +3466,13 @@
         <v>91184</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3487,13 @@
         <v>29123</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -3478,13 +3502,13 @@
         <v>7545</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="M37" s="7">
         <v>35</v>
@@ -3493,13 +3517,13 @@
         <v>36668</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>248</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3538,13 @@
         <v>8691</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -3529,13 +3553,13 @@
         <v>3020</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M38" s="7">
         <v>13</v>
@@ -3544,13 +3568,13 @@
         <v>11711</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3589,13 @@
         <v>14650</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -3580,13 +3604,13 @@
         <v>1164</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M39" s="7">
         <v>14</v>
@@ -3595,13 +3619,13 @@
         <v>15814</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3646,7 @@
         <v>61</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -3631,13 +3655,13 @@
         <v>1558</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3646,13 +3670,13 @@
         <v>1558</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3691,13 @@
         <v>877</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3697,19 +3721,19 @@
         <v>877</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>151</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
@@ -3718,13 +3742,13 @@
         <v>1284</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3748,13 +3772,13 @@
         <v>1284</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3793,13 @@
         <v>334660</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H43" s="7">
         <v>247</v>
@@ -3784,13 +3808,13 @@
         <v>296049</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M43" s="7">
         <v>550</v>
@@ -3799,18 +3823,18 @@
         <v>630709</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3822,13 +3846,13 @@
         <v>98449</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H44" s="7">
         <v>205</v>
@@ -3837,13 +3861,13 @@
         <v>144761</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M44" s="7">
         <v>317</v>
@@ -3852,13 +3876,13 @@
         <v>243209</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3897,13 @@
         <v>169258</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="H45" s="7">
         <v>113</v>
@@ -3888,13 +3912,13 @@
         <v>83983</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="M45" s="7">
         <v>304</v>
@@ -3903,13 +3927,13 @@
         <v>253241</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3948,13 @@
         <v>98566</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="H46" s="7">
         <v>60</v>
@@ -3939,13 +3963,13 @@
         <v>49595</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="M46" s="7">
         <v>155</v>
@@ -3954,13 +3978,13 @@
         <v>148161</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3999,13 @@
         <v>30513</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>199</v>
+        <v>312</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="H47" s="7">
         <v>17</v>
@@ -3990,13 +4014,13 @@
         <v>12570</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>139</v>
+        <v>314</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="M47" s="7">
         <v>46</v>
@@ -4005,13 +4029,13 @@
         <v>43083</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4050,13 @@
         <v>27186</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>195</v>
+        <v>320</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="H48" s="7">
         <v>7</v>
@@ -4041,13 +4065,13 @@
         <v>6804</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>310</v>
+        <v>219</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="M48" s="7">
         <v>30</v>
@@ -4056,13 +4080,13 @@
         <v>33990</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,13 +4101,13 @@
         <v>22642</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="H49" s="7">
         <v>8</v>
@@ -4092,13 +4116,13 @@
         <v>7776</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>273</v>
+        <v>143</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="M49" s="7">
         <v>28</v>
@@ -4107,13 +4131,13 @@
         <v>30418</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>193</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,7 +4158,7 @@
         <v>61</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -4143,13 +4167,13 @@
         <v>651</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>145</v>
+        <v>336</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
@@ -4158,13 +4182,13 @@
         <v>651</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4203,13 @@
         <v>757</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>329</v>
+        <v>149</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4200,7 +4224,7 @@
         <v>61</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -4209,19 +4233,19 @@
         <v>757</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="7">
         <v>9</v>
@@ -4230,13 +4254,13 @@
         <v>8759</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>335</v>
+        <v>263</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -4245,13 +4269,13 @@
         <v>5098</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>117</v>
+        <v>344</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="M52" s="7">
         <v>14</v>
@@ -4263,10 +4287,10 @@
         <v>63</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4305,13 @@
         <v>456130</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H53" s="7">
         <v>417</v>
@@ -4296,13 +4320,13 @@
         <v>311237</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M53" s="7">
         <v>897</v>
@@ -4311,13 +4335,13 @@
         <v>767367</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4358,13 @@
         <v>332365</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>159</v>
+        <v>348</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>339</v>
+        <v>24</v>
       </c>
       <c r="H54" s="7">
         <v>521</v>
@@ -4349,13 +4373,13 @@
         <v>471221</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M54" s="7">
         <v>859</v>
@@ -4364,13 +4388,13 @@
         <v>803586</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4409,13 @@
         <v>663446</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="H55" s="7">
         <v>396</v>
@@ -4400,13 +4424,13 @@
         <v>287385</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="M55" s="7">
         <v>1077</v>
@@ -4415,13 +4439,13 @@
         <v>950831</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4460,13 @@
         <v>343022</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="H56" s="7">
         <v>172</v>
@@ -4451,13 +4475,13 @@
         <v>141885</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M56" s="7">
         <v>487</v>
@@ -4466,13 +4490,13 @@
         <v>484907</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>237</v>
+        <v>372</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4511,13 @@
         <v>116129</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="H57" s="7">
         <v>43</v>
@@ -4502,13 +4526,13 @@
         <v>31324</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="M57" s="7">
         <v>143</v>
@@ -4517,13 +4541,13 @@
         <v>147453</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>62</v>
+        <v>381</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4562,13 @@
         <v>65450</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="H58" s="7">
         <v>30</v>
@@ -4553,13 +4577,13 @@
         <v>27377</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="M58" s="7">
         <v>89</v>
@@ -4568,13 +4592,13 @@
         <v>92827</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4613,13 @@
         <v>55375</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>379</v>
+        <v>251</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="H59" s="7">
         <v>26</v>
@@ -4604,13 +4628,13 @@
         <v>23191</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="M59" s="7">
         <v>74</v>
@@ -4619,13 +4643,13 @@
         <v>78566</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>384</v>
+        <v>148</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>386</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4664,13 @@
         <v>5989</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="H60" s="7">
         <v>6</v>
@@ -4655,13 +4679,13 @@
         <v>4522</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>388</v>
+        <v>140</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>389</v>
+        <v>212</v>
       </c>
       <c r="M60" s="7">
         <v>14</v>
@@ -4670,13 +4694,13 @@
         <v>10511</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4715,13 @@
         <v>6731</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4712,7 +4736,7 @@
         <v>61</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="M61" s="7">
         <v>6</v>
@@ -4721,19 +4745,19 @@
         <v>6731</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="7">
         <v>23</v>
@@ -4742,13 +4766,13 @@
         <v>20377</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>396</v>
+        <v>114</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="H62" s="7">
         <v>7</v>
@@ -4757,13 +4781,13 @@
         <v>6731</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>265</v>
+        <v>400</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>76</v>
+        <v>407</v>
       </c>
       <c r="M62" s="7">
         <v>30</v>
@@ -4772,13 +4796,13 @@
         <v>27108</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>399</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4817,13 @@
         <v>1608884</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H63" s="7">
         <v>1201</v>
@@ -4808,13 +4832,13 @@
         <v>993636</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M63" s="7">
         <v>2779</v>
@@ -4823,18 +4847,18 @@
         <v>2602520</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B7884A0-A34B-4008-BEE8-CD8FA6828EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E8B3554-3A1B-4E3A-9672-4E64250B5A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{883E2F0D-C97F-4492-9853-31E4E6D35FED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51F140F5-105E-4DF5-842E-8278F7C7E5D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca en toda mi vida</t>
@@ -287,7 +287,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>23,5%</t>
@@ -494,7 +494,7 @@
     <t>1,99%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>18,98%</t>
@@ -698,7 +698,7 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>19,34%</t>
@@ -1674,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07253D13-1A54-4F9D-8A19-C3AEB3191CDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E308883D-A108-4042-9DC2-C1427ACC663D}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P32D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E8B3554-3A1B-4E3A-9672-4E64250B5A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{036C8BAA-04A1-4739-8B5B-EE7C2F3CB0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51F140F5-105E-4DF5-842E-8278F7C7E5D8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2518AF18-15D3-4A6D-A3DA-8287F9015E15}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="401">
   <si>
     <t>Población según si en los últimos 12 meses ha tomado 6/5 (Hombre/Mujer) o más bebidas estándar en una misma ocasión en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>20,85%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
   </si>
   <si>
     <t>53,52%</t>
   </si>
   <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
   </si>
   <si>
     <t>No en los últimos 12 meses</t>
@@ -104,28 +104,28 @@
     <t>35,72%</t>
   </si>
   <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
   </si>
   <si>
     <t>23,2%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
   </si>
   <si>
     <t>31,15%</t>
   </si>
   <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
   </si>
   <si>
     <t>Menos de una vez al mes</t>
@@ -134,28 +134,28 @@
     <t>20,28%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>12,31%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>Una vez al mes</t>
@@ -167,22 +167,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>15,78%</t>
+    <t>12,74%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>18,64%</t>
+    <t>21,52%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>De 2 a 3 días en un mes</t>
@@ -191,25 +191,25 @@
     <t>9,27%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>18,67%</t>
+    <t>17,6%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
   </si>
   <si>
     <t>De 1 a 2 días por semana</t>
@@ -218,7 +218,7 @@
     <t>2,85%</t>
   </si>
   <si>
-    <t>15,35%</t>
+    <t>13,91%</t>
   </si>
   <si>
     <t>0%</t>
@@ -230,7 +230,7 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>8,45%</t>
+    <t>10,64%</t>
   </si>
   <si>
     <t>De 3 a 4 días por semana</t>
@@ -239,13 +239,13 @@
     <t>2,91%</t>
   </si>
   <si>
-    <t>8,91%</t>
+    <t>9,76%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>12,25%</t>
+    <t>14,35%</t>
   </si>
   <si>
     <t>2,79%</t>
@@ -254,7 +254,7 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>8,35%</t>
+    <t>7,78%</t>
   </si>
   <si>
     <t>De 5 a 6 días por semana</t>
@@ -263,1003 +263,979 @@
     <t>2,72%</t>
   </si>
   <si>
-    <t>13,17%</t>
+    <t>13,58%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
+    <t>7,52%</t>
+  </si>
+  <si>
     <t>A diario o casi a diario</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>2,29%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>0,11%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>1,7%</t>
+    <t>1,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1674,7 +1650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E308883D-A108-4042-9DC2-C1427ACC663D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B391FA92-50B7-4FAF-A125-C756A5770DF5}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2191,13 +2167,13 @@
         <v>42</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -2206,13 +2182,13 @@
         <v>650</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2236,13 +2212,13 @@
         <v>650</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2233,13 @@
         <v>45218</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -2272,13 +2248,13 @@
         <v>26000</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -2287,18 +2263,18 @@
         <v>71219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2310,13 +2286,13 @@
         <v>67888</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -2325,13 +2301,13 @@
         <v>52790</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>152</v>
@@ -2340,13 +2316,13 @@
         <v>120679</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,13 +2337,13 @@
         <v>114070</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>82</v>
@@ -2376,13 +2352,13 @@
         <v>53366</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>214</v>
@@ -2391,13 +2367,13 @@
         <v>167436</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2388,13 @@
         <v>68699</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -2427,13 +2403,13 @@
         <v>24307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -2442,10 +2418,10 @@
         <v>93006</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>110</v>
@@ -2583,10 +2559,10 @@
         <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2595,13 +2571,13 @@
         <v>11408</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2592,13 @@
         <v>1191</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2631,13 +2607,13 @@
         <v>1642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2646,13 +2622,13 @@
         <v>2834</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2643,13 @@
         <v>1141</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2688,7 +2664,7 @@
         <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2697,19 +2673,19 @@
         <v>1141</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="7">
         <v>5</v>
@@ -2718,13 +2694,13 @@
         <v>3986</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2739,7 +2715,7 @@
         <v>61</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2748,13 +2724,13 @@
         <v>3986</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2745,13 @@
         <v>288931</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H23" s="7">
         <v>207</v>
@@ -2784,13 +2760,13 @@
         <v>141028</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M23" s="7">
         <v>509</v>
@@ -2799,18 +2775,18 @@
         <v>429959</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2822,13 +2798,13 @@
         <v>91872</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="H24" s="7">
         <v>110</v>
@@ -2837,13 +2813,13 @@
         <v>75217</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="M24" s="7">
         <v>194</v>
@@ -2852,13 +2828,13 @@
         <v>167089</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2849,13 @@
         <v>213364</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>96</v>
@@ -2888,13 +2864,13 @@
         <v>72260</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>298</v>
@@ -2903,13 +2879,13 @@
         <v>285624</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2900,13 @@
         <v>101883</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>43</v>
@@ -2939,13 +2915,13 @@
         <v>38302</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>132</v>
@@ -2954,13 +2930,13 @@
         <v>140185</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2951,13 @@
         <v>42269</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -2990,13 +2966,13 @@
         <v>8965</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>45</v>
@@ -3005,13 +2981,13 @@
         <v>51234</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,10 +3005,10 @@
         <v>66</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -3041,13 +3017,13 @@
         <v>11873</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -3056,13 +3032,13 @@
         <v>25959</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3053,13 @@
         <v>8566</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -3092,13 +3068,13 @@
         <v>11071</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -3110,10 +3086,10 @@
         <v>70</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3104,13 @@
         <v>3482</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3149,7 +3125,7 @@
         <v>61</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -3158,13 +3134,13 @@
         <v>3482</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3155,13 @@
         <v>2725</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3200,7 +3176,7 @@
         <v>61</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -3209,19 +3185,19 @@
         <v>2725</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="7">
         <v>6</v>
@@ -3230,13 +3206,13 @@
         <v>5698</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -3245,13 +3221,13 @@
         <v>1633</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -3260,13 +3236,13 @@
         <v>7331</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3257,13 @@
         <v>483945</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33" s="7">
         <v>289</v>
@@ -3296,13 +3272,13 @@
         <v>219321</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M33" s="7">
         <v>729</v>
@@ -3311,18 +3287,18 @@
         <v>703266</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3334,13 +3310,13 @@
         <v>64728</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H34" s="7">
         <v>98</v>
@@ -3349,13 +3325,13 @@
         <v>184537</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M34" s="7">
         <v>159</v>
@@ -3364,13 +3340,13 @@
         <v>249265</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3361,13 @@
         <v>150603</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>96</v>
@@ -3400,13 +3376,13 @@
         <v>71744</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M35" s="7">
         <v>232</v>
@@ -3415,13 +3391,13 @@
         <v>222348</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3412,13 @@
         <v>64705</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H36" s="7">
         <v>35</v>
@@ -3451,13 +3427,13 @@
         <v>26480</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>93</v>
@@ -3466,13 +3442,13 @@
         <v>91184</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3463,13 @@
         <v>29123</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -3502,13 +3478,13 @@
         <v>7545</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M37" s="7">
         <v>35</v>
@@ -3517,13 +3493,13 @@
         <v>36668</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>67</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3514,13 @@
         <v>8691</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -3553,13 +3529,13 @@
         <v>3020</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M38" s="7">
         <v>13</v>
@@ -3568,13 +3544,13 @@
         <v>11711</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3565,13 @@
         <v>14650</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -3604,13 +3580,13 @@
         <v>1164</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="M39" s="7">
         <v>14</v>
@@ -3619,13 +3595,13 @@
         <v>15814</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,7 +3622,7 @@
         <v>61</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -3655,13 +3631,13 @@
         <v>1558</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>273</v>
+        <v>122</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3670,13 +3646,13 @@
         <v>1558</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3667,13 @@
         <v>877</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3721,19 +3697,19 @@
         <v>877</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>279</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
@@ -3742,13 +3718,13 @@
         <v>1284</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3772,13 +3748,13 @@
         <v>1284</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3769,13 @@
         <v>334660</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H43" s="7">
         <v>247</v>
@@ -3808,13 +3784,13 @@
         <v>296049</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M43" s="7">
         <v>550</v>
@@ -3823,18 +3799,18 @@
         <v>630709</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3846,13 +3822,13 @@
         <v>98449</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H44" s="7">
         <v>205</v>
@@ -3861,13 +3837,13 @@
         <v>144761</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M44" s="7">
         <v>317</v>
@@ -3876,13 +3852,13 @@
         <v>243209</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3873,13 @@
         <v>169258</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="H45" s="7">
         <v>113</v>
@@ -3912,13 +3888,13 @@
         <v>83983</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M45" s="7">
         <v>304</v>
@@ -3927,13 +3903,13 @@
         <v>253241</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3924,13 @@
         <v>98566</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="H46" s="7">
         <v>60</v>
@@ -3963,13 +3939,13 @@
         <v>49595</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>307</v>
+        <v>159</v>
       </c>
       <c r="M46" s="7">
         <v>155</v>
@@ -3978,13 +3954,13 @@
         <v>148161</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3975,13 @@
         <v>30513</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="H47" s="7">
         <v>17</v>
@@ -4014,13 +3990,13 @@
         <v>12570</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>314</v>
+        <v>139</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="M47" s="7">
         <v>46</v>
@@ -4029,13 +4005,13 @@
         <v>43083</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4026,13 @@
         <v>27186</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>320</v>
+        <v>195</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="H48" s="7">
         <v>7</v>
@@ -4065,13 +4041,13 @@
         <v>6804</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="M48" s="7">
         <v>30</v>
@@ -4080,13 +4056,13 @@
         <v>33990</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4077,13 @@
         <v>22642</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="H49" s="7">
         <v>8</v>
@@ -4116,13 +4092,13 @@
         <v>7776</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>143</v>
+        <v>273</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M49" s="7">
         <v>28</v>
@@ -4131,13 +4107,13 @@
         <v>30418</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>333</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,7 +4134,7 @@
         <v>61</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -4167,13 +4143,13 @@
         <v>651</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>336</v>
+        <v>145</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
@@ -4182,13 +4158,13 @@
         <v>651</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>42</v>
+        <v>326</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4179,13 @@
         <v>757</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>149</v>
+        <v>329</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4224,7 +4200,7 @@
         <v>61</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>213</v>
+        <v>330</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -4233,19 +4209,19 @@
         <v>757</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C52" s="7">
         <v>9</v>
@@ -4254,13 +4230,13 @@
         <v>8759</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -4269,13 +4245,13 @@
         <v>5098</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>344</v>
+        <v>117</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="M52" s="7">
         <v>14</v>
@@ -4287,10 +4263,10 @@
         <v>63</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>347</v>
+        <v>261</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4281,13 @@
         <v>456130</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H53" s="7">
         <v>417</v>
@@ -4320,13 +4296,13 @@
         <v>311237</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M53" s="7">
         <v>897</v>
@@ -4335,13 +4311,13 @@
         <v>767367</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4334,13 @@
         <v>332365</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>348</v>
+        <v>159</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>24</v>
+        <v>339</v>
       </c>
       <c r="H54" s="7">
         <v>521</v>
@@ -4373,13 +4349,13 @@
         <v>471221</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="M54" s="7">
         <v>859</v>
@@ -4388,13 +4364,13 @@
         <v>803586</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4385,13 @@
         <v>663446</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="H55" s="7">
         <v>396</v>
@@ -4424,13 +4400,13 @@
         <v>287385</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="M55" s="7">
         <v>1077</v>
@@ -4439,13 +4415,13 @@
         <v>950831</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4436,13 @@
         <v>343022</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H56" s="7">
         <v>172</v>
@@ -4475,13 +4451,13 @@
         <v>141885</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M56" s="7">
         <v>487</v>
@@ -4490,13 +4466,13 @@
         <v>484907</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>372</v>
+        <v>237</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4487,13 @@
         <v>116129</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>376</v>
+        <v>248</v>
       </c>
       <c r="H57" s="7">
         <v>43</v>
@@ -4526,13 +4502,13 @@
         <v>31324</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="M57" s="7">
         <v>143</v>
@@ -4541,13 +4517,13 @@
         <v>147453</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>381</v>
+        <v>62</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4538,13 @@
         <v>65450</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="H58" s="7">
         <v>30</v>
@@ -4577,13 +4553,13 @@
         <v>27377</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="M58" s="7">
         <v>89</v>
@@ -4592,13 +4568,13 @@
         <v>92827</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4589,13 @@
         <v>55375</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="H59" s="7">
         <v>26</v>
@@ -4628,13 +4604,13 @@
         <v>23191</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="M59" s="7">
         <v>74</v>
@@ -4643,13 +4619,13 @@
         <v>78566</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>148</v>
+        <v>384</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>119</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4640,13 @@
         <v>5989</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="H60" s="7">
         <v>6</v>
@@ -4679,13 +4655,13 @@
         <v>4522</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>213</v>
+        <v>330</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>140</v>
+        <v>388</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>212</v>
+        <v>389</v>
       </c>
       <c r="M60" s="7">
         <v>14</v>
@@ -4694,13 +4670,13 @@
         <v>10511</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4691,13 @@
         <v>6731</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4736,7 +4712,7 @@
         <v>61</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="M61" s="7">
         <v>6</v>
@@ -4745,19 +4721,19 @@
         <v>6731</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>403</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62" s="7">
         <v>23</v>
@@ -4766,13 +4742,13 @@
         <v>20377</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>114</v>
+        <v>396</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H62" s="7">
         <v>7</v>
@@ -4781,13 +4757,13 @@
         <v>6731</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="M62" s="7">
         <v>30</v>
@@ -4796,13 +4772,13 @@
         <v>27108</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>145</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4793,13 @@
         <v>1608884</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H63" s="7">
         <v>1201</v>
@@ -4832,13 +4808,13 @@
         <v>993636</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M63" s="7">
         <v>2779</v>
@@ -4847,18 +4823,18 @@
         <v>2602520</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
